--- a/story/主线剧情/main/level_main_07-05_end.xlsx
+++ b/story/主线剧情/main/level_main_07-05_end.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="765">
   <si>
     <t>zh_CN</t>
   </si>
@@ -22,6 +22,9 @@
     <t>ja_JP</t>
   </si>
   <si>
+    <t>en_US</t>
+  </si>
+  <si>
     <t>ko_KR</t>
   </si>
   <si>
@@ -1546,6 +1549,766 @@
   </si>
   <si>
     <t xml:space="preserve">[name="アーミヤ"]  この都市の移動速度が……落ちている？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloodied. Torn. Pierced. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="This isn’t right.", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Us. Enemies. People.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wailing, screaming, groaning.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="This isn’t right!;......!;I can’t take this anymore.", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  You have a question. Ask.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  Doctor... is this your first time seeing Rosmontis fight?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  I know it’s hard to watch, but—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I’ll handle it. You go tend to the wounded enemies who can’t fight anymore. Also, among them are communications personnel relaying orders and intelligence. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  If they’re allowed to escape, it puts our whole operation at risk.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  ...Roger.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="How old is she? ", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Fourteen. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="And you’re letting her...?!", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  People, please... let me through!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  What happened here? I just finished handling the...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Doctor?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  ...What?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Doctor, did you just call me?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Who sent you out to fight?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Who sent you here?!", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Doctor!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="This is too cruel!;...This is terrible...;You should not have to suffer through this.", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="...Why would they let you do this?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Kal'tsit!;......!;This isn’t right.", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  I did.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="What are you talking about?;......;You did what...?", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  I did. I chose to fight. I want to fight.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  There are some feelings I can only experience on the battlefield.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Protecting my friends and family is the only way I can feel complete.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  ...Rhodes Island needs me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  The world is calling my name, to prevent more people like me from coming into it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Still though, you can’t...", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="You can’t—", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  ...Does death care that I am a child?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Would war or disease spare someone because they are a child?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  When Amiya or I stand on the battlefield... who looks at us and thinks “children?”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  We’re “monsters,” aren’t we, Doctor?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="No!;......;That’s just how you see yourself.", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  No, Doctor.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  No, Dr. {@nickname}.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  It doesn’t matter what I am.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  I just want to make a difference, with my family.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Do you know Scout?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="What...?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  ...Do you know Ace?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Yes.", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  ..It’s already been a few days since I watched any of their materials.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  I’ve forgotten a lot.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  But I only forgot. I’m not like you, Doctor, who threw away everything.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Rosmontis.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  No, I didn’t mean that. But you get it, Amiya.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...I get it. But just... don’t say it like that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Mm... Fine.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  I’ve lost bits and pieces of things. Lots of pictures and words.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Those feelings... feelings I can’t say, only Amiya can understand...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  But they never truly left me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Doctor... I feel like you’re complicated.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Even more complicated than they say.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  They say I’m complicated too. Some of them are scared of me. Some of them say I shouldn’t be like this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  But they don’t know why I’m like this. They don’t know what I’ve been through.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Why does my heart suddenly ache? Why do I want to cry, now of all times?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Even though I can’t remember anything... why are my eyes still sore? Why are my lips dry?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Who left a stain in the corridor, and why hasn’t it been cleaned? Why do I feel worried when I break a vase, but also strangely happy?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Why do I feel disgust from looking at flowers, but wonder from looking at bugs?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  What happened during all that time I can no longer remember? Why do these emotions keep welling up within me?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Every operator I feel has their own unique differences.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  And when I lose them, those feelings also disappear.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  But why...? Why do we even have emotions?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Why do my tears keep flowing even when I can’t even feel anymore?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Didn’t I already forget everything?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  But Rosmontis never wanted me to take her feelings away.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  These sudden surges of emotion belong to her, no matter what they are.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...They belong only to Rosmontis.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  I can’t interfere with them. As long as Rosmontis still has hope somewhere inside her... I won’t do that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Because it’s up to her to choose what to do. She can also choose to forget.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  To truly forget.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="What happened to Rosmontis?;......;I don’t know that much about her.", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Dr. {@nickname}... Rhodes Island has a strict screening process for our operators.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Many of them apply for combat roles, and we reject most of those. We look at lots of different metrics to decide if an operator is fit for combat.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Combat ability, tactical aptitude, discipline, and physical fitness are all important parameters, but that barely scratches the surface.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  People often have difficulty trusting one another when they’re on an actual mission.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Rosmontis is here because she trusts in our orders and objectives, and we trust in her abilities and judgment.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Please believe in me, Doctor. No, believe in us...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  You’ll slowly begin to see... the colors of her emotions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Doctor. Thank you for fighting alongside Blaze.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Why?;......;You don’t have to thank me.", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Blaze needs more people fighting alongside her. And I want to see her smile.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  I want to see you too. I want to see the one Ace and Scout always talked about.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Here you are.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="You found me this time.", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  ...She uses heavy machinery to quickly and effectively destroy the enemy, while at the same time exhibiting astonishing self-control and adaptiveness. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Rosmontis is one of Rhodes Island’s greatest annihilation specialists.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  As such, the way she treats people and the way she speaks may worry you. The way she fights and its contrast with her appearance, is indeed very cruel.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Blaze running around with her chainsaw may be easier to accept, but the destruction of when Rosmontis takes the field is much harder to stomach.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  If it will help you sleep at night, I can make you a promise. If it will help at all.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  —Rosmontis almost never kills. Though her tactics seems to singularly aim for that outcome, she actually focuses on disabling the enemy’s combat abilities.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Take the last battle, for example, all the enemies were disarmed, and not a single one died to Rosmontis’s attacks.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  She also has much more control over her weapons than she once did.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Of course, whether or not we can keep the prisoners alive depends entirely on our ability to destroy Reunion’s leadership. Only then will we be able to send rescue teams into the core city.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  But sometimes, we must use lethal force in order to accomplish our goals. Some loss of life is inevitable.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  You still look disturbed. Is this all beyond your ability to accept?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="I can’t accept this.;......;It doesn’t make sense.", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  You might not be able to accept the truth either.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Her terrifying Originium Arts and incredible perception are not the only reasons why Rosmontis is an elite operator.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  —Rosmontis demonstrates these qualities because she became an elite operator.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  We made our judgment not on whether to send her to battle, but how disastrous the consequences might be if we didn’t let her become a fighter like this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="What kind of consequences?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Worst case scenario, her Arts leak out from her body and push her to kill, subconsciously or otherwise.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Humans killing each other has become the normal state of things. Even so, most people still hold their weapons and staves themselves.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Whether or not someone who has lost her sense of self can still be called a person is another topic I’m not interested in discussing. But humanity grapples with the extent and manifestation of this problem.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  “When you deprive a human being of her sentience, what is left? What is created?”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  “When that creation deprives us of our lives, who is at fault?”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  The one who created the weapon, the one who used the weapon, or the one we treat as a weapon?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Another riddle?;......;I’ll figure it out myself.", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  As we move on to the next battle, I may be able to teach you more. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  By the way, on the issue of her age...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Amiya puts on an air of maturity that may have you fooled. Maybe, maybe not.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  A young creature known as a deadly weapon won’t be seen as an ordinary child just because she looks young.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  —Not to mention all that they’ve been through.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  ...Take what you need. It’s time to head to the surface.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="What about Amiya? Is she a weapon too?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  You can ask her yourself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  This is something you should hear from her.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  Kal'tsit! Stop right there!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Warfarin, I was just leaving. Whatever it is, make it quick.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  You know the prophecy, don’t you? Yes, there’s nothing you don’t know.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Prophecy?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  Is that not why you allowed Amiya to go?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Amiya is the commander of this operation, as well as the one who suggested it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  But as young as Amiya is, how can she command—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Warfarin, how long has it been since we left Kazdel?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Be precise, or I’m leaving.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  ...Two months?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Warfarin... stop joking around.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  I know what you mean. She’s grown up.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Yes, Warfarin. Time flies.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Age progression in Cautuses and Vampires is radically different. It has been three years since we left Kazdel.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  It may feel like a short time for you, but Amiya has matured a lot.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  Answer my first question. The prophecy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  ...”The last Wendigo will die at the hands of the Lord of Fiends?”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  Correct. I’m familiar with that guerilla group, and their leader. I’m certain it’s him.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  The original phrasing of the prophecy was “The son of Hor-Tekrz, traitor to Sarkaz and disreputable end of the bloodline, will be executed by the Lord of Sarkaz.”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Some prophecy. Whether or not there’s any extension of their “bloodline,” there are still many Wendigos living their lives in Columbia and Ursus.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  ...That is, if a few dozen can be called “many.”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  And, considering the context of the time, you should view it as a threat. Many people did not want to see the Wendigos leave Kazdel.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  It wasn’t either of us who said it. And since you still remember it, you must have found it important. No?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Are you getting old? Since when do you believe in “prophecies” and Sarkaz witchcraft?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  —Old? M-Me?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I contracted Oripathy. Death is always here with me, waiting for the right time to strike. Warfarin, my life is no doubt much shorter than you think.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  Hey!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  Must we be so morbid? I’m not your little girl Closure. I won’t let you keep skirting the topic.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  The issue you raised is quite morbid.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  ...Never mind.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  Hear me, Kal'tsit, the others may not say as much to you, but I will.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  He is one of the very few left among us. I am no bleeding heart, no goodly busybody, but... we are Sarkaz.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  I am a Vampire, and the old man is a Wendigo, but we are the same.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  This world is a tough place for Sarkaz. I hope he can return to Kazdel, if possible. Or come with us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  ——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I’m not, Warfarin. I’m not Sarkaz.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  So you refuse?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  No...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I’ll do what I can.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  ...Even I remember him, Warfarin.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  Your promise is stronger than anything.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Don’t get your hopes up that this will be easy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  But this time, you’ll be there. As long as Dr. Kal'tsit makes her best effort, I’ll accept the outcome.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Maybe you haven’t heard, but your proposal came too late. Some things have already unfolded, and rather unfortunately.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Some time ago, an Infected clinic in Chernobog called “Azazel” traded information with us. I learned some more information about the Wendigo in Reunion's service.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  What’s more, and you should know this well, anyone who stands against the most brutal blade in Ursus will soon learn whether it tastes of salt or rust.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Nobody should knowingly place our operators in danger.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Warfarin"]  Some patients’ days are numbered, but that number depends on the doctor treating them. It’s all up to us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  ...It’s all up to us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  And I told you before... You may have forgotten.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I won’t discipline you for it, but I may do something to put an end to it once and for all.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  You are not to say I’m frightening, Warfarin. We’ve been over this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  “Do not, under any circumstances, even at Rhodes Island, speak of ‘the Lord of Fiends.’”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Ever.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Wait.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  All hands, at ease!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Rosmontis... am I getting this right?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Hm. Yes. I felt it too.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Dr. {@nickname}, something unexpected here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="What is it?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  I’m not totally sure, but...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  The core city might be... slowing down?
 </t>
   </si>
   <si>
@@ -2664,13 +3427,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C193"/>
+  <dimension ref="A1:D193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2680,2117 +3443,2696 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>385</v>
+      </c>
+      <c r="D2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>386</v>
+      </c>
+      <c r="D3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C4" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>387</v>
+      </c>
+      <c r="D4" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>388</v>
+      </c>
+      <c r="D5" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C6" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>389</v>
+      </c>
+      <c r="D6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C7" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>390</v>
+      </c>
+      <c r="D7" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C8" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>391</v>
+      </c>
+      <c r="D8" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C9" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>392</v>
+      </c>
+      <c r="D9" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C10" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>393</v>
+      </c>
+      <c r="D10" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C11" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>394</v>
+      </c>
+      <c r="D11" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C12" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>395</v>
+      </c>
+      <c r="D12" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C13" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>396</v>
+      </c>
+      <c r="D13" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C14" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>397</v>
+      </c>
+      <c r="D14" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C15" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>398</v>
+      </c>
+      <c r="D15" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C16" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>399</v>
+      </c>
+      <c r="D16" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C17" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>400</v>
+      </c>
+      <c r="D17" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C18" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>401</v>
+      </c>
+      <c r="D18" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C19" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>402</v>
+      </c>
+      <c r="D19" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C20" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>403</v>
+      </c>
+      <c r="D20" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C21" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>404</v>
+      </c>
+      <c r="D21" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C22" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>405</v>
+      </c>
+      <c r="D22" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C23" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>406</v>
+      </c>
+      <c r="D23" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C24" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>407</v>
+      </c>
+      <c r="D24" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C25" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>408</v>
+      </c>
+      <c r="D25" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C26" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>409</v>
+      </c>
+      <c r="D26" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C27" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>410</v>
+      </c>
+      <c r="D27" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C28" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>411</v>
+      </c>
+      <c r="D28" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C29" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>412</v>
+      </c>
+      <c r="D29" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C30" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>413</v>
+      </c>
+      <c r="D30" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C31" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D31" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C32" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>415</v>
+      </c>
+      <c r="D32" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C33" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>416</v>
+      </c>
+      <c r="D33" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C34" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>417</v>
+      </c>
+      <c r="D34" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C35" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>418</v>
+      </c>
+      <c r="D35" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C36" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>419</v>
+      </c>
+      <c r="D36" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C37" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>420</v>
+      </c>
+      <c r="D37" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C38" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>421</v>
+      </c>
+      <c r="D38" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C39" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>422</v>
+      </c>
+      <c r="D39" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C40" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>423</v>
+      </c>
+      <c r="D40" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C41" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>424</v>
+      </c>
+      <c r="D41" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C42" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>425</v>
+      </c>
+      <c r="D42" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C43" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>426</v>
+      </c>
+      <c r="D43" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C44" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>427</v>
+      </c>
+      <c r="D44" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C45" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>428</v>
+      </c>
+      <c r="D45" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C46" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>429</v>
+      </c>
+      <c r="D46" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C47" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>430</v>
+      </c>
+      <c r="D47" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C48" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>431</v>
+      </c>
+      <c r="D48" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C49" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>432</v>
+      </c>
+      <c r="D49" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C50" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>433</v>
+      </c>
+      <c r="D50" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C51" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>434</v>
+      </c>
+      <c r="D51" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C52" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>435</v>
+      </c>
+      <c r="D52" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C53" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>436</v>
+      </c>
+      <c r="D53" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C54" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>437</v>
+      </c>
+      <c r="D54" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C55" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>438</v>
+      </c>
+      <c r="D55" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C56" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>439</v>
+      </c>
+      <c r="D56" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C57" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>440</v>
+      </c>
+      <c r="D57" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C58" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>441</v>
+      </c>
+      <c r="D58" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C59" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>442</v>
+      </c>
+      <c r="D59" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C60" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>443</v>
+      </c>
+      <c r="D60" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C61" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>63</v>
+      </c>
+      <c r="D61" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C62" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C63" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C64" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C65" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C66" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C67" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C68" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C69" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C70" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C71" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C72" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C73" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C74" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C75" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B76" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C76" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>406</v>
+      </c>
+      <c r="D76" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C77" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C78" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C79" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C80" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C81" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C82" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C83" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C84" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C85" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="D85" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C86" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C87" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C88" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C89" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C90" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="D90" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C91" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D91" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C92" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C93" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C94" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C95" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C96" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C97" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="D97" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C98" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="D98" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C99" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C100" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C101" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="D101" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C102" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C103" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C104" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="D104" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C105" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="D105" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C106" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="D106" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C107" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="D107" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C108" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="D108" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C109" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="D109" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C110" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="D110" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C111" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="D111" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B112" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C112" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="D112" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B113" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C113" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="D113" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B114" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C114" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="D114" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B115" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C115" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="D115" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B116" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C116" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="D116" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B117" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C117" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="D117" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B118" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C118" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="D118" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B119" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C119" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="D119" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B120" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C120" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="D120" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B121" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C121" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="D121" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B122" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C122" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="D122" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B123" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C123" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="D123" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B124" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C124" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="D124" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B125" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C125" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="D125" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B126" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C126" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="127" spans="1:3">
+      <c r="D126" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B127" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C127" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="D127" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B128" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C128" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="D128" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B129" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C129" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="D129" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B130" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C130" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="131" spans="1:3">
+      <c r="D130" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B131" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C131" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="132" spans="1:3">
+      <c r="D131" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B132" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C132" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="133" spans="1:3">
+      <c r="D132" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B133" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C133" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="134" spans="1:3">
+      <c r="D133" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B134" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C134" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="135" spans="1:3">
+      <c r="D134" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B135" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C135" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="136" spans="1:3">
+      <c r="D135" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B136" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C136" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="137" spans="1:3">
+      <c r="D136" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B137" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C137" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="138" spans="1:3">
+      <c r="D137" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B138" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C138" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="139" spans="1:3">
+      <c r="D138" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B139" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C139" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="140" spans="1:3">
+      <c r="D139" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B140" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C140" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="141" spans="1:3">
+      <c r="D140" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B141" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C141" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="142" spans="1:3">
+      <c r="D141" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B142" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C142" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="143" spans="1:3">
+      <c r="D142" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B143" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C143" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="144" spans="1:3">
+      <c r="D143" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B144" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C144" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="145" spans="1:3">
+      <c r="D144" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B145" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C145" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="146" spans="1:3">
+      <c r="D145" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B146" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C146" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="147" spans="1:3">
+      <c r="D146" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B147" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C147" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="148" spans="1:3">
+      <c r="D147" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B148" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C148" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="149" spans="1:3">
+      <c r="D148" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B149" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C149" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="150" spans="1:3">
+      <c r="D149" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B150" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C150" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="151" spans="1:3">
+      <c r="D150" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B151" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C151" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="152" spans="1:3">
+      <c r="D151" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B152" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C152" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="153" spans="1:3">
+      <c r="D152" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B153" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C153" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="154" spans="1:3">
+      <c r="D153" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B154" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C154" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="155" spans="1:3">
+      <c r="D154" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B155" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C155" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="156" spans="1:3">
+      <c r="D155" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B156" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C156" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="157" spans="1:3">
+      <c r="D156" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B157" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C157" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="158" spans="1:3">
+      <c r="D157" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B158" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C158" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="159" spans="1:3">
+      <c r="D158" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B159" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C159" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="160" spans="1:3">
+      <c r="D159" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B160" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C160" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="161" spans="1:3">
+      <c r="D160" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B161" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C161" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="162" spans="1:3">
+      <c r="D161" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B162" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C162" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="163" spans="1:3">
+      <c r="D162" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B163" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C163" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="164" spans="1:3">
+      <c r="D163" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B164" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C164" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="165" spans="1:3">
+      <c r="D164" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B165" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C165" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="166" spans="1:3">
+      <c r="D165" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B166" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C166" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
+        <v>547</v>
+      </c>
+      <c r="D166" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B167" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C167" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
+        <v>548</v>
+      </c>
+      <c r="D167" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B168" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C168" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
+        <v>549</v>
+      </c>
+      <c r="D168" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B169" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C169" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
+        <v>550</v>
+      </c>
+      <c r="D169" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B170" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C170" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
+        <v>551</v>
+      </c>
+      <c r="D170" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B171" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C171" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
+        <v>552</v>
+      </c>
+      <c r="D171" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B172" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C172" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
+        <v>553</v>
+      </c>
+      <c r="D172" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B173" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C173" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
+        <v>554</v>
+      </c>
+      <c r="D173" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B174" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C174" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
+        <v>555</v>
+      </c>
+      <c r="D174" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B175" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C175" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
+        <v>556</v>
+      </c>
+      <c r="D175" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B176" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C176" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
+        <v>557</v>
+      </c>
+      <c r="D176" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B177" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C177" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
+        <v>558</v>
+      </c>
+      <c r="D177" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B178" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C178" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
+        <v>559</v>
+      </c>
+      <c r="D178" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B179" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C179" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
+        <v>560</v>
+      </c>
+      <c r="D179" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B180" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C180" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
+        <v>561</v>
+      </c>
+      <c r="D180" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B181" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C181" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
+        <v>562</v>
+      </c>
+      <c r="D181" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B182" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C182" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
+        <v>563</v>
+      </c>
+      <c r="D182" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B183" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C183" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
+        <v>564</v>
+      </c>
+      <c r="D183" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B184" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C184" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
+        <v>565</v>
+      </c>
+      <c r="D184" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B185" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C185" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
+        <v>566</v>
+      </c>
+      <c r="D185" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B186" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C186" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
+        <v>567</v>
+      </c>
+      <c r="D186" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B187" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C187" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
+        <v>568</v>
+      </c>
+      <c r="D187" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B188" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C188" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
+        <v>569</v>
+      </c>
+      <c r="D188" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B189" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C189" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
+        <v>570</v>
+      </c>
+      <c r="D189" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B190" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C190" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
+        <v>571</v>
+      </c>
+      <c r="D190" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B191" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C191" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
+        <v>572</v>
+      </c>
+      <c r="D191" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B192" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C192" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
+        <v>573</v>
+      </c>
+      <c r="D192" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B193" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C193" t="s">
-        <v>573</v>
+        <v>574</v>
+      </c>
+      <c r="D193" t="s">
+        <v>764</v>
       </c>
     </row>
   </sheetData>
